--- a/src/test/resources/test_metadonne.xlsx
+++ b/src/test/resources/test_metadonne.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Titre</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Gestion des droits</t>
+  </si>
+  <si>
+    <t>Titre_test</t>
   </si>
   <si>
     <t>Creator</t>
@@ -145,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -213,13 +216,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -242,6 +332,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -266,6 +383,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1327,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1386,25 +1504,25 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s" s="7">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s" s="7">
         <v>7</v>
@@ -1413,7 +1531,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s" s="7">
         <v>10</v>
@@ -1428,8 +1546,144 @@
         <v>13</v>
       </c>
       <c r="O2" t="s" s="7">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
